--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1779891.276660617</v>
+        <v>1777639.196949409</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>132.987015343851</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>78.96122915360898</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.4403630282117</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>244.9774942274433</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067175</v>
       </c>
       <c r="F5" t="n">
-        <v>74.98619773129357</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>95.44336989065454</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>162.4154839174017</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>5.400304892655059</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>72.81729813874392</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.4765410832882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368376975</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465739</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>35.56815683447393</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>75.55208621972433</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>4.713266813875332e-12</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>126.9263824507404</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>107.0531836110633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>115.7063133373755</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.17550840396338</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>98.2054987677615</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340498</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>100.0416311957212</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.33703994142512</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>43.55707494718542</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>541.9536817013557</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>541.9536817013557</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179762</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197319</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U7" t="n">
-        <v>756.8309614571731</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V7" t="n">
-        <v>502.1464732512862</v>
+        <v>162.9195607661779</v>
       </c>
       <c r="W7" t="n">
-        <v>212.7293032143256</v>
+        <v>162.9195607661779</v>
       </c>
       <c r="X7" t="n">
-        <v>212.7293032143256</v>
+        <v>162.9195607661779</v>
       </c>
       <c r="Y7" t="n">
-        <v>212.7293032143256</v>
+        <v>162.9195607661779</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968309</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>879.773173361559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9849207633147</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>82.99901597370717</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>71.96696985910773</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>71.96696985910773</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>140.0649428349551</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>286.9548903328654</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>286.9548903328654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.8388927589092</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>615.6449305525938</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>465.528291140258</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>803.2707707770271</v>
       </c>
       <c r="C16" t="n">
-        <v>733.4550657171305</v>
+        <v>634.3345878491202</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>484.2179484367845</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.711814750797</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>984.9192356072668</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>385.6451336181112</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5899,61 +5899,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741515</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704555</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.7543264856228</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909563</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>334.7259677085632</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1052.829365488567</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>883.8931825606599</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>733.7765431483241</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>585.863449565931</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782938</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038324</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797724</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W31" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y31" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703064</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826423995</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>526.5658826423995</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703064</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>593.6115863900017</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>593.6115863900017</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426093036</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>113.0473161837384</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>70.88187642684484</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32043864788746</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>118.6564717779738</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>110.0033420516617</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.6564717779739</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>47.21554925516975</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012339</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788753</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>45.37941682721004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>105.0969227051441</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.8768876993838</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>882321.2498270522</v>
+        <v>882321.2498270521</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>882321.2498270521</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882321.2498270524</v>
+        <v>882321.2498270522</v>
       </c>
     </row>
     <row r="12">
@@ -26314,13 +26314,13 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907539</v>
@@ -26329,31 +26329,31 @@
         <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687968</v>
-      </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976072.2357346473</v>
+        <v>-976072.2357346467</v>
       </c>
       <c r="C6" t="n">
-        <v>352672.5099929459</v>
+        <v>352672.5099929454</v>
       </c>
       <c r="D6" t="n">
         <v>352672.5099929454</v>
       </c>
       <c r="E6" t="n">
-        <v>102852.3231526122</v>
+        <v>102817.5852271765</v>
       </c>
       <c r="F6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="G6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345315</v>
       </c>
       <c r="H6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345312</v>
       </c>
       <c r="I6" t="n">
-        <v>428264.7849599672</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="J6" t="n">
-        <v>210733.58256269</v>
+        <v>210698.8446372543</v>
       </c>
       <c r="K6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345318</v>
       </c>
       <c r="L6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="M6" t="n">
-        <v>343209.7570244555</v>
+        <v>343175.0190990196</v>
       </c>
       <c r="N6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345311</v>
       </c>
       <c r="O6" t="n">
-        <v>428264.7849599671</v>
+        <v>428230.0470345314</v>
       </c>
       <c r="P6" t="n">
-        <v>428264.784959967</v>
+        <v>428230.0470345315</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>194.7652431262839</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024446</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.39161715372563</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,16 +27591,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>41.54550410914766</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554424</v>
       </c>
       <c r="F5" t="n">
-        <v>331.8898480104178</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>84.38861029128276</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>123.7963542882112</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.17662488027086</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>23.53512227109417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,10 +28068,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.287668775498232e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295147</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191267</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
